--- a/biology/Zoologie/Charinus_pecki/Charinus_pecki.xlsx
+++ b/biology/Zoologie/Charinus_pecki/Charinus_pecki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus pecki est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1],[2]. Elle se rencontre à Hienghène dans la grotte Taphozous.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie,. Elle se rencontre à Hienghène dans la grotte Taphozous.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 4,90 mm de long sur 7,20 mm et celle de la femelle 4,64 mm de long sur 6,48 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 4,90 mm de long sur 7,20 mm et celle de la femelle 4,64 mm de long sur 6,48 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Stewart B. Peck[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Stewart B. Peck.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Weygoldt, 2006 : « New Caledonian whip spiders: notes on Charinus australianus, Charinus neocaledonicus and other south-western Pacific species of Charinus australianus species group (Chelicerata, Amblypygi, Charinidae). » Verhandlungen des Naturwissenschaftlichen Vereins in Hamburg, vol. 42, p. 5-37.</t>
         </is>
